--- a/data/journals.xlsx
+++ b/data/journals.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C195"/>
+  <dimension ref="A1:C192"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -415,1503 +415,1503 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Nat. Rev. Mater.</v>
-      </c>
-      <c r="B2">
-        <v>71.189</v>
+        <v>Submitted</v>
+      </c>
+      <c r="B2" t="str">
+        <v>-</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Chem. Rev.</v>
+        <v>Nat. Rev. Mater.</v>
       </c>
       <c r="B3">
-        <v>52.758</v>
+        <v>71.189</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Nat.Energy</v>
+        <v>Chem. Rev.</v>
       </c>
       <c r="B4">
-        <v>46.495</v>
+        <v>52.758</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Chem. Soc. Rev.</v>
+        <v>Nat.Energy</v>
       </c>
       <c r="B5">
-        <v>42.846</v>
+        <v>46.495</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Nature</v>
+        <v>Chem. Soc. Rev.</v>
       </c>
       <c r="B6">
-        <v>42.778</v>
+        <v>42.846</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Science</v>
+        <v>Nature</v>
       </c>
       <c r="B7">
-        <v>41.845</v>
+        <v>42.778</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Nat. Mater.</v>
+        <v>Science</v>
       </c>
       <c r="B8">
-        <v>38.663</v>
+        <v>41.845</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Nat. Rev. Chem.</v>
+        <v>Nat. Mater.</v>
       </c>
       <c r="B9">
-        <v>34.953</v>
+        <v>38.663</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Prog. Mater. Sci</v>
+        <v>Nat. Rev. Chem.</v>
       </c>
       <c r="B10">
-        <v>31.56</v>
+        <v>34.953</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Nat. Nanotechnol.</v>
+        <v>Prog. Mater. Sci</v>
       </c>
       <c r="B11">
-        <v>31.538</v>
+        <v>31.56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Nat. Photonics</v>
+        <v>Nat. Nanotechnol.</v>
       </c>
       <c r="B12">
-        <v>31.241</v>
+        <v>31.538</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Nat.Catal</v>
+        <v>Nat. Photonics</v>
       </c>
       <c r="B13">
-        <v>30.471</v>
+        <v>31.241</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Energy Environ. Sci.</v>
+        <v>Nat.Catal</v>
       </c>
       <c r="B14">
-        <v>30.289</v>
+        <v>30.471</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Adv. Mater.</v>
+        <v>Energy Environ. Sci.</v>
       </c>
       <c r="B15">
-        <v>27.398</v>
+        <v>30.289</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Mater. Sci. Eng. R-Rep.</v>
+        <v>Adv. Mater.</v>
       </c>
       <c r="B16">
-        <v>26.625</v>
+        <v>27.398</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Mater. Today</v>
+        <v>Mater. Sci. Eng. R-Rep.</v>
       </c>
       <c r="B17">
-        <v>26.416</v>
+        <v>26.625</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Adv. Energy Mater.</v>
+        <v>Mater. Today</v>
       </c>
       <c r="B18">
-        <v>25.245</v>
+        <v>26.416</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Nat. Chem.</v>
+        <v>Adv. Energy Mater.</v>
       </c>
       <c r="B19">
-        <v>21.687</v>
+        <v>25.245</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Account Chem. Res.</v>
+        <v>Nat. Chem.</v>
       </c>
       <c r="B20">
-        <v>20.832</v>
+        <v>21.687</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Chem</v>
+        <v>Account Chem. Res.</v>
       </c>
       <c r="B21">
-        <v>19.735</v>
+        <v>20.832</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>ACS Energy Lett.</v>
+        <v>Chem</v>
       </c>
       <c r="B22">
-        <v>19.003</v>
+        <v>19.735</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Nano Today</v>
+        <v>ACS Energy Lett.</v>
       </c>
       <c r="B23">
-        <v>16.907</v>
+        <v>19.003</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Adv. Funct. Mater.</v>
+        <v>Nano Today</v>
       </c>
       <c r="B24">
-        <v>16.836</v>
+        <v>16.907</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Natl Sci. Rev.</v>
+        <v>Adv. Funct. Mater.</v>
       </c>
       <c r="B25">
-        <v>16.693</v>
+        <v>16.836</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Appl. Catal. B-Environ.</v>
+        <v>Natl Sci. Rev.</v>
       </c>
       <c r="B26">
-        <v>16.683</v>
+        <v>16.693</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Nano Energy</v>
+        <v>Appl. Catal. B-Environ.</v>
       </c>
       <c r="B27">
-        <v>16.602</v>
+        <v>16.683</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Energy Storage Mater.</v>
+        <v>Nano Energy</v>
       </c>
       <c r="B28">
-        <v>16.28</v>
+        <v>16.602</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Adv. Sci.</v>
+        <v>Energy Storage Mater.</v>
       </c>
       <c r="B29">
-        <v>15.84</v>
+        <v>16.28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>J. Am. Chem. Soc.</v>
+        <v>Adv. Sci.</v>
       </c>
       <c r="B30">
-        <v>14.612</v>
+        <v>15.84</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>ACS Nano</v>
+        <v>J. Am. Chem. Soc.</v>
       </c>
       <c r="B31">
-        <v>14.588</v>
+        <v>14.612</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Int. Mater. Rev.</v>
+        <v>ACS Nano</v>
       </c>
       <c r="B32">
-        <v>14.429</v>
+        <v>14.588</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>sci. adv.</v>
+        <v>Int. Mater. Rev.</v>
       </c>
       <c r="B33">
-        <v>13.116</v>
+        <v>14.429</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Angew. Chem.-Int. Edit.</v>
+        <v>sci. adv.</v>
       </c>
       <c r="B34">
-        <v>12.959</v>
+        <v>13.116</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>ACS Central Sci.</v>
+        <v>Angew. Chem.-Int. Edit.</v>
       </c>
       <c r="B35">
-        <v>12.685</v>
+        <v>12.959</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>ACS Catal.</v>
+        <v>ACS Central Sci.</v>
       </c>
       <c r="B36">
-        <v>12.35</v>
+        <v>12.685</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Mat. Horizons</v>
+        <v>ACS Catal.</v>
       </c>
       <c r="B37">
-        <v>12.319</v>
+        <v>12.35</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Nano-Micro Lett.</v>
+        <v>Mat. Horizons</v>
       </c>
       <c r="B38">
-        <v>12.264</v>
+        <v>12.319</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Small methods</v>
+        <v>Nano-Micro Lett.</v>
       </c>
       <c r="B39">
-        <v>12.13</v>
+        <v>12.264</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Nat. Commun.</v>
+        <v>Small methods</v>
       </c>
       <c r="B40">
-        <v>12.121</v>
+        <v>12.13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Renew. Sust. Energ. Rev.</v>
+        <v>Nat. Commun.</v>
       </c>
       <c r="B41">
-        <v>12.1</v>
+        <v>12.121</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Small</v>
+        <v>Renew. Sust. Energ. Rev.</v>
       </c>
       <c r="B42">
-        <v>11.459</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>J. Mater. Chem. A</v>
+        <v>Small</v>
       </c>
       <c r="B43">
-        <v>11.301</v>
+        <v>11.459</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v xml:space="preserve">Nano Lett. </v>
+        <v>J. Mater. Chem. A</v>
       </c>
       <c r="B44">
-        <v>11.238</v>
+        <v>11.301</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Chem. Eng. J</v>
+        <v xml:space="preserve">Nano Lett. </v>
       </c>
       <c r="B45">
-        <v>10.652</v>
+        <v>11.238</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Nanoscale Horiz.</v>
+        <v>Chem. Eng. J</v>
       </c>
       <c r="B46">
-        <v>9.927</v>
+        <v>10.652</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Surf. Sci. Rep.</v>
+        <v>Nanoscale Horiz.</v>
       </c>
       <c r="B47">
-        <v>9.688</v>
+        <v>9.927</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Curr. Opin. Solid State Mat. Sci.</v>
+        <v>Surf. Sci. Rep.</v>
       </c>
       <c r="B48">
-        <v>9.571</v>
+        <v>9.688</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Chem. Mater.</v>
+        <v>Curr. Opin. Solid State Mat. Sci.</v>
       </c>
       <c r="B49">
-        <v>9.567</v>
+        <v>9.571</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Green Chem.</v>
+        <v>Chem. Mater.</v>
       </c>
       <c r="B50">
-        <v>9.48</v>
+        <v>9.567</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Proc. Natl. Acad. Sci. U. S. A. (PNAS)</v>
+        <v>Green Chem.</v>
       </c>
       <c r="B51">
-        <v>9.412</v>
+        <v>9.48</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Chem. Sci.</v>
+        <v>Proc. Natl. Acad. Sci. U. S. A. (PNAS)</v>
       </c>
       <c r="B52">
-        <v>9.346</v>
+        <v>9.412</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>J. Hazard. Mater.</v>
+        <v>Chem. Sci.</v>
       </c>
       <c r="B53">
-        <v>9.038</v>
+        <v>9.346</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Appl. Energy</v>
+        <v>J. Hazard. Mater.</v>
       </c>
       <c r="B54">
-        <v>8.848</v>
+        <v>9.038</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Carbon</v>
+        <v>Appl. Energy</v>
       </c>
       <c r="B55">
-        <v>8.821</v>
+        <v>8.848</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>ACS Appl. Mater. Interfaces</v>
+        <v>Carbon</v>
       </c>
       <c r="B56">
-        <v>8.758</v>
+        <v>8.821</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Phys. Rev. Lett.</v>
+        <v>ACS Appl. Mater. Interfaces</v>
       </c>
       <c r="B57">
-        <v>8.385</v>
+        <v>8.758</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>J. Power Sources</v>
+        <v>Phys. Rev. Lett.</v>
       </c>
       <c r="B58">
-        <v>8.247</v>
+        <v>8.385</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Energy Conv. Manag.</v>
+        <v>J. Power Sources</v>
       </c>
       <c r="B59">
-        <v>8.208</v>
+        <v>8.247</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Nano Res.</v>
+        <v>Energy Conv. Manag.</v>
       </c>
       <c r="B60">
-        <v>8.183</v>
+        <v>8.208</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>NPG Asia Mater.</v>
+        <v>Nano Res.</v>
       </c>
       <c r="B61">
-        <v>8.131</v>
+        <v>8.183</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>ChemSusChem</v>
+        <v>NPG Asia Mater.</v>
       </c>
       <c r="B62">
-        <v>7.962</v>
+        <v>8.131</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v xml:space="preserve">J. Catal. </v>
+        <v>ChemSusChem</v>
       </c>
       <c r="B63">
-        <v>7.888</v>
+        <v>7.962</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Environ. Sci. Technol.</v>
+        <v xml:space="preserve">J. Catal. </v>
       </c>
       <c r="B64">
-        <v>7.864</v>
+        <v>7.888</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Prog. Photovoltaics</v>
+        <v>Environ. Sci. Technol.</v>
       </c>
       <c r="B65">
-        <v>7.69</v>
+        <v>7.864</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Environ.-Sci. Nano</v>
+        <v>Prog. Photovoltaics</v>
       </c>
       <c r="B66">
-        <v>7.683</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Environ. Sci. Technol. Lett.</v>
+        <v>Environ.-Sci. Nano</v>
       </c>
       <c r="B67">
-        <v>7.678</v>
+        <v>7.683</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Acta Mater.</v>
+        <v>Environ. Sci. Technol. Lett.</v>
       </c>
       <c r="B68">
-        <v>7.656</v>
+        <v>7.678</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Compos. Pt. B-Eng.</v>
+        <v>Acta Mater.</v>
       </c>
       <c r="B69">
-        <v>7.635</v>
+        <v>7.656</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>ACS Sustain. Chem. Eng.</v>
+        <v>Compos. Pt. B-Eng.</v>
       </c>
       <c r="B70">
-        <v>7.632</v>
+        <v>7.635</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>J. Colloid Interface Sci.</v>
+        <v>ACS Sustain. Chem. Eng.</v>
       </c>
       <c r="B71">
-        <v>7.489</v>
+        <v>7.632</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Adv. Health. Mater.</v>
+        <v>J. Colloid Interface Sci.</v>
       </c>
       <c r="B72">
-        <v>7.367</v>
+        <v>7.489</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>J. Energy Chem.</v>
+        <v>Adv. Health. Mater.</v>
       </c>
       <c r="B73">
-        <v>7.216</v>
+        <v>7.367</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2D Mater.</v>
+        <v>J. Energy Chem.</v>
       </c>
       <c r="B74">
-        <v>7.14</v>
+        <v>7.216</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>J. Mater. Chem. C</v>
+        <v>2D Mater.</v>
       </c>
       <c r="B75">
-        <v>7.059</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Sol. Energy Mater. Sol. Cells</v>
+        <v>J. Mater. Chem. C</v>
       </c>
       <c r="B76">
-        <v>6.984</v>
+        <v>7.059</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Nanoscale</v>
+        <v>Sol. Energy Mater. Sol. Cells</v>
       </c>
       <c r="B77">
-        <v>6.895</v>
+        <v>6.984</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Anal. Chem.</v>
+        <v>Nanoscale</v>
       </c>
       <c r="B78">
-        <v>6.785</v>
+        <v>6.895</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>J. Phys. Chem. Lett.</v>
+        <v>Anal. Chem.</v>
       </c>
       <c r="B79">
-        <v>6.71</v>
+        <v>6.785</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Mater. Res. Lett.</v>
+        <v>J. Phys. Chem. Lett.</v>
       </c>
       <c r="B80">
-        <v>6.6</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Compos. Pt. A-Appl. Sci. Manuf.</v>
+        <v>Mater. Res. Lett.</v>
       </c>
       <c r="B81">
-        <v>6.444</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Renew. Energy</v>
+        <v>Compos. Pt. A-Appl. Sci. Manuf.</v>
       </c>
       <c r="B82">
-        <v>6.274</v>
+        <v>6.444</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Microchim. Acta</v>
+        <v>Renew. Energy</v>
       </c>
       <c r="B83">
-        <v>6.232</v>
+        <v>6.274</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Electrochim. Acta</v>
+        <v>Microchim. Acta</v>
       </c>
       <c r="B84">
-        <v>6.215</v>
+        <v>6.232</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Appl. Surf. Sci.</v>
+        <v>Electrochim. Acta</v>
       </c>
       <c r="B85">
-        <v>6.182</v>
+        <v>6.215</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>J. Mater. Sci. Technol.</v>
+        <v>Appl. Surf. Sci.</v>
       </c>
       <c r="B86">
-        <v>6.155</v>
+        <v>6.182</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Energy</v>
+        <v>J. Mater. Sci. Technol.</v>
       </c>
       <c r="B87">
-        <v>6.082</v>
+        <v>6.155</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Chem. Commun.</v>
+        <v>Energy</v>
       </c>
       <c r="B88">
-        <v>5.996</v>
+        <v>6.082</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>J. CO2 Util.</v>
+        <v>Chem. Commun.</v>
       </c>
       <c r="B89">
-        <v>5.993</v>
+        <v>5.996</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Inorg. Chem. Front.</v>
+        <v>J. CO2 Util.</v>
       </c>
       <c r="B90">
-        <v>5.958</v>
+        <v>5.993</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Adv. Synth. Catal.</v>
+        <v>Inorg. Chem. Front.</v>
       </c>
       <c r="B91">
-        <v>5.851</v>
+        <v>5.958</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Catal. Today</v>
+        <v>Adv. Synth. Catal.</v>
       </c>
       <c r="B92">
-        <v>5.825</v>
+        <v>5.851</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Catal. Sci. Technol.</v>
+        <v>Catal. Today</v>
       </c>
       <c r="B93">
-        <v>5.721</v>
+        <v>5.825</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Mater. Today Energy</v>
+        <v>Catal. Sci. Technol.</v>
       </c>
       <c r="B94">
-        <v>5.604</v>
+        <v>5.721</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Fuel</v>
+        <v>Mater. Today Energy</v>
       </c>
       <c r="B95">
-        <v>5.578</v>
+        <v>5.604</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Environ. Sci Eur.</v>
+        <v>Fuel</v>
       </c>
       <c r="B96">
-        <v>5.394</v>
+        <v>5.578</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>J. Mater. Chem. B</v>
+        <v>Environ. Sci Eur.</v>
       </c>
       <c r="B97">
-        <v>5.344</v>
+        <v>5.394</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>J. Ind. Eng. Chem.</v>
+        <v>J. Mater. Chem. B</v>
       </c>
       <c r="B98">
-        <v>5.278</v>
+        <v>5.344</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Scr. Mater.</v>
+        <v>J. Ind. Eng. Chem.</v>
       </c>
       <c r="B99">
-        <v>5.079</v>
+        <v>5.278</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>MRS Bull.</v>
+        <v>Scr. Mater.</v>
       </c>
       <c r="B100">
-        <v>5.061</v>
+        <v>5.079</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Appl. Catal. A-Gen.</v>
+        <v>MRS Bull.</v>
       </c>
       <c r="B101">
-        <v>5.006</v>
+        <v>5.061</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Adv. Mater. Interfaces</v>
+        <v>Appl. Catal. A-Gen.</v>
       </c>
       <c r="B102">
-        <v>4.948</v>
+        <v>5.006</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Int. J. Hydrog. Energy</v>
+        <v>Adv. Mater. Interfaces</v>
       </c>
       <c r="B103">
-        <v>4.939</v>
+        <v>4.948</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>IEEE J. Sel. Top. Quantum Electron.</v>
+        <v>Int. J. Hydrog. Energy</v>
       </c>
       <c r="B104">
-        <v>4.917</v>
+        <v>4.939</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Adv. Sustain. Syst.</v>
+        <v>IEEE J. Sel. Top. Quantum Electron.</v>
       </c>
       <c r="B105">
-        <v>4.869</v>
+        <v>4.917</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Chem.-Eur. J.</v>
+        <v>Adv. Sustain. Syst.</v>
       </c>
       <c r="B106">
-        <v>4.857</v>
+        <v>4.869</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>ChemCatChem</v>
+        <v>Chem.-Eur. J.</v>
       </c>
       <c r="B107">
-        <v>4.853</v>
+        <v>4.857</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Inorg. Chem.</v>
+        <v>ChemCatChem</v>
       </c>
       <c r="B108">
-        <v>4.825</v>
+        <v>4.853</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Mater. Sci. Eng. A-Struct.</v>
+        <v>Inorg. Chem.</v>
       </c>
       <c r="B109">
-        <v>4.652</v>
+        <v>4.825</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>J. Alloy. Compd.</v>
+        <v>Mater. Sci. Eng. A-Struct.</v>
       </c>
       <c r="B110">
-        <v>4.65</v>
+        <v>4.652</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Sol. Energy</v>
+        <v>J. Alloy. Compd.</v>
       </c>
       <c r="B111">
-        <v>4.608</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>J. Eur. Ceram. Soc.</v>
+        <v>Sol. Energy</v>
       </c>
       <c r="B112">
-        <v>4.495</v>
+        <v>4.608</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>ACS Appl. Energy. Mater.</v>
+        <v>J. Eur. Ceram. Soc.</v>
       </c>
       <c r="B113">
-        <v>4.473</v>
+        <v>4.495</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Phys. Lett. B</v>
+        <v>ACS Appl. Energy. Mater.</v>
       </c>
       <c r="B114">
-        <v>4.384</v>
+        <v>4.473</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Electrochem. Commun.</v>
+        <v>Phys. Lett. B</v>
       </c>
       <c r="B115">
-        <v>4.333</v>
+        <v>4.384</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>J. Phys. Chem. C</v>
+        <v>Electrochem. Commun.</v>
       </c>
       <c r="B116">
-        <v>4.189</v>
+        <v>4.333</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Dalton Trans.</v>
+        <v>J. Phys. Chem. C</v>
       </c>
       <c r="B117">
-        <v>4.174</v>
+        <v>4.189</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>ChemElectroChem</v>
+        <v>Dalton Trans.</v>
       </c>
       <c r="B118">
-        <v>4.154</v>
+        <v>4.174</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Cryst. Growth Des.</v>
+        <v>ChemElectroChem</v>
       </c>
       <c r="B119">
-        <v>4.089</v>
+        <v>4.154</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Chem.-Asian J.</v>
+        <v>Cryst. Growth Des.</v>
       </c>
       <c r="B120">
-        <v>4.056</v>
+        <v>4.089</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Sci. Rep</v>
+        <v>Chem.-Asian J.</v>
       </c>
       <c r="B121">
-        <v>3.998</v>
+        <v>4.056</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Chem. Eng. Sci.</v>
+        <v>Sci. Rep</v>
       </c>
       <c r="B122">
-        <v>3.871</v>
+        <v>3.998</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Ceram. Int.</v>
+        <v>Chem. Eng. Sci.</v>
       </c>
       <c r="B123">
-        <v>3.83</v>
+        <v>3.871</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>J. Electroanal. Chem.</v>
+        <v>Ceram. Int.</v>
       </c>
       <c r="B124">
-        <v>3.807</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Int. J. Energy Res.</v>
+        <v>J. Electroanal. Chem.</v>
       </c>
       <c r="B125">
-        <v>3.741</v>
+        <v>3.807</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>J. Electrochem. Soc.</v>
+        <v>Int. J. Energy Res.</v>
       </c>
       <c r="B126">
-        <v>3.721</v>
+        <v>3.741</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Catal. Commun.</v>
+        <v>J. Electrochem. Soc.</v>
       </c>
       <c r="B127">
-        <v>3.612</v>
+        <v>3.721</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v xml:space="preserve">Appl. Phys. Lett. </v>
+        <v>Catal. Commun.</v>
       </c>
       <c r="B128">
-        <v>3.597</v>
+        <v>3.612</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Energy Rep.</v>
+        <v xml:space="preserve">Appl. Phys. Lett. </v>
       </c>
       <c r="B129">
-        <v>3.595</v>
+        <v>3.597</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Phys. Rev. B</v>
+        <v>Energy Rep.</v>
       </c>
       <c r="B130">
-        <v>3.575</v>
+        <v>3.595</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Ind. Eng. Chem. Res.</v>
+        <v>Phys. Rev. B</v>
       </c>
       <c r="B131">
-        <v>3.573</v>
+        <v>3.575</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Langmuir</v>
+        <v>Ind. Eng. Chem. Res.</v>
       </c>
       <c r="B132">
-        <v>3.557</v>
+        <v>3.573</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>J. Mater. Sci.</v>
+        <v>Langmuir</v>
       </c>
       <c r="B133">
-        <v>3.553</v>
+        <v>3.557</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Nanotechnology</v>
+        <v>J. Mater. Sci.</v>
       </c>
       <c r="B134">
-        <v>3.551</v>
+        <v>3.553</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>New J. Phys.</v>
+        <v>Nanotechnology</v>
       </c>
       <c r="B135">
-        <v>3.539</v>
+        <v>3.551</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>J. Am. Ceram. Soc.</v>
+        <v>New J. Phys.</v>
       </c>
       <c r="B136">
-        <v>3.502</v>
+        <v>3.539</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>J. Phys. Chem. Solids</v>
+        <v>J. Am. Ceram. Soc.</v>
       </c>
       <c r="B137">
-        <v>3.442</v>
+        <v>3.502</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Phys. Chem. Chem. Phys.</v>
+        <v>J. Phys. Chem. Solids</v>
       </c>
       <c r="B138">
-        <v>3.43</v>
+        <v>3.442</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Energy Fuels</v>
+        <v>Phys. Chem. Chem. Phys.</v>
       </c>
       <c r="B139">
-        <v>3.421</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Mater. Chem. Phys.</v>
+        <v>Energy Fuels</v>
       </c>
       <c r="B140">
-        <v>3.408</v>
+        <v>3.421</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Energy Technol.</v>
+        <v>Mater. Chem. Phys.</v>
       </c>
       <c r="B141">
-        <v>3.404</v>
+        <v>3.408</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>ChemNanoMat</v>
+        <v>Energy Technol.</v>
       </c>
       <c r="B142">
-        <v>3.384</v>
+        <v>3.404</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Org. Electron.</v>
+        <v>ChemNanoMat</v>
       </c>
       <c r="B143">
-        <v>3.31</v>
+        <v>3.384</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>J. Photochem. Photobiol. A-Chem.</v>
+        <v>Org. Electron.</v>
       </c>
       <c r="B144">
-        <v>3.306</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>New J. Chem.</v>
+        <v>J. Photochem. Photobiol. A-Chem.</v>
       </c>
       <c r="B145">
-        <v>3.288</v>
+        <v>3.306</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Synth. Met.</v>
+        <v>New J. Chem.</v>
       </c>
       <c r="B146">
-        <v>3.286</v>
+        <v>3.288</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Mater. Lett.</v>
+        <v>Synth. Met.</v>
       </c>
       <c r="B147">
-        <v>3.204</v>
+        <v>3.286</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>J. Phys. D-Appl. Phys.</v>
+        <v>Mater. Lett.</v>
       </c>
       <c r="B148">
-        <v>3.169</v>
+        <v>3.204</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>ChemPhysChem</v>
+        <v>J. Phys. D-Appl. Phys.</v>
       </c>
       <c r="B149">
-        <v>3.144</v>
+        <v>3.169</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Nanoscale Res. Lett.</v>
+        <v>ChemPhysChem</v>
       </c>
       <c r="B150">
-        <v>3.125</v>
+        <v>3.144</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>RSC Adv.</v>
+        <v>Nanoscale Res. Lett.</v>
       </c>
       <c r="B151">
-        <v>3.119</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Solid State Ion.</v>
+        <v>RSC Adv.</v>
       </c>
       <c r="B152">
-        <v>3.107</v>
+        <v>3.119</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>J. Chem. Phys.</v>
+        <v>Solid State Ion.</v>
       </c>
       <c r="B153">
-        <v>2.991</v>
+        <v>3.107</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>J. Phys. Chem. B</v>
+        <v>J. Chem. Phys.</v>
       </c>
       <c r="B154">
-        <v>2.857</v>
+        <v>2.991</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>ChemPlusChem</v>
+        <v>J. Phys. Chem. B</v>
       </c>
       <c r="B155">
-        <v>2.753</v>
+        <v>2.857</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>J. Solid State Chem.</v>
+        <v>ChemPlusChem</v>
       </c>
       <c r="B156">
-        <v>2.726</v>
+        <v>2.753</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>J. Phys.-Condes. Matter</v>
+        <v>J. Solid State Chem.</v>
       </c>
       <c r="B157">
-        <v>2.707</v>
+        <v>2.726</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Korean J. Chem. Eng.</v>
+        <v>J. Phys.-Condes. Matter</v>
       </c>
       <c r="B158">
-        <v>2.69</v>
+        <v>2.707</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>J. Solid State Electrochem.</v>
+        <v>Korean J. Chem. Eng.</v>
       </c>
       <c r="B159">
-        <v>2.646</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>J. Phys. Chem. A</v>
+        <v>J. Solid State Electrochem.</v>
       </c>
       <c r="B160">
-        <v>2.6</v>
+        <v>2.646</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>J. Appl. Polym. Sci.</v>
+        <v>J. Phys. Chem. A</v>
       </c>
       <c r="B161">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Sol. Phys.</v>
+        <v>J. Appl. Polym. Sci.</v>
       </c>
       <c r="B162">
-        <v>2.503</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>J. Mater. Res.</v>
+        <v>Sol. Phys.</v>
       </c>
       <c r="B163">
-        <v>2.502</v>
+        <v>2.503</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Catal. Lett.</v>
+        <v>J. Mater. Res.</v>
       </c>
       <c r="B164">
-        <v>2.482</v>
+        <v>2.502</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Top. Catal.</v>
+        <v>Catal. Lett.</v>
       </c>
       <c r="B165">
-        <v>2.406</v>
+        <v>2.482</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>J. Appl. Electrochem.</v>
+        <v>Top. Catal.</v>
       </c>
       <c r="B166">
-        <v>2.384</v>
+        <v>2.406</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>J. Appl. Phys.</v>
+        <v>J. Appl. Electrochem.</v>
       </c>
       <c r="B167">
-        <v>2.286</v>
+        <v>2.384</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Curr. Appl. Phys.</v>
+        <v>J. Appl. Phys.</v>
       </c>
       <c r="B168">
-        <v>2.281</v>
+        <v>2.286</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>J. Synchrot. Radiat.</v>
+        <v>Curr. Appl. Phys.</v>
       </c>
       <c r="B169">
-        <v>2.251</v>
+        <v>2.281</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Catal. Surv. Asia</v>
+        <v>J. Synchrot. Radiat.</v>
       </c>
       <c r="B170">
-        <v>2.194</v>
+        <v>2.251</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>ECS J. Solid State Sci. &amp; Tech.</v>
+        <v>Catal. Surv. Asia</v>
       </c>
       <c r="B171">
-        <v>2.142</v>
+        <v>2.194</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>J. Nanopart. Res.</v>
+        <v>ECS J. Solid State Sci. &amp; Tech.</v>
       </c>
       <c r="B172">
-        <v>2.132</v>
+        <v>2.142</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Thin Solid Films</v>
+        <v>J. Nanopart. Res.</v>
       </c>
       <c r="B173">
-        <v>2.03</v>
+        <v>2.132</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Chem. Phys. Lett.</v>
+        <v>Thin Solid Films</v>
       </c>
       <c r="B174">
-        <v>2.029</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>MRS Commun.</v>
+        <v>Chem. Phys. Lett.</v>
       </c>
       <c r="B175">
-        <v>1.997</v>
+        <v>2.029</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v xml:space="preserve">Environ. Prog. Sustain. Energy </v>
+        <v>MRS Commun.</v>
       </c>
       <c r="B176">
-        <v>1.989</v>
+        <v>1.997</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>J. Nanomater.</v>
+        <v xml:space="preserve">Environ. Prog. Sustain. Energy </v>
       </c>
       <c r="B177">
-        <v>1.98</v>
+        <v>1.989</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Fuel Cells</v>
+        <v>J. Nanomater.</v>
       </c>
       <c r="B178">
-        <v>1.876</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>ChemistrySelect</v>
+        <v>Fuel Cells</v>
       </c>
       <c r="B179">
-        <v>1.811</v>
+        <v>1.876</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>J. Electron. Mater.</v>
+        <v>ChemistrySelect</v>
       </c>
       <c r="B180">
-        <v>1.774</v>
+        <v>1.811</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>J. Cryst. Growth</v>
+        <v>J. Electron. Mater.</v>
       </c>
       <c r="B181">
-        <v>1.632</v>
+        <v>1.774</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v xml:space="preserve">J. Renew. Sustain. Energy </v>
+        <v>J. Cryst. Growth</v>
       </c>
       <c r="B182">
-        <v>1.575</v>
+        <v>1.632</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Surf. Sci.</v>
+        <v xml:space="preserve">J. Renew. Sustain. Energy </v>
       </c>
       <c r="B183">
-        <v>1.466</v>
+        <v>1.575</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Jpn. J. Appl. Phys.</v>
+        <v>Surf. Sci.</v>
       </c>
       <c r="B184">
-        <v>1.376</v>
+        <v>1.466</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Chem. Lett.</v>
+        <v>Jpn. J. Appl. Phys.</v>
       </c>
       <c r="B185">
-        <v>1.361</v>
+        <v>1.376</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>J. Nanosci. Nanotechnol.</v>
+        <v>Chem. Lett.</v>
       </c>
       <c r="B186">
-        <v>1.134</v>
+        <v>1.361</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>J. Korean Phys. Soc.</v>
+        <v>J. Nanosci. Nanotechnol.</v>
       </c>
       <c r="B187">
-        <v>0.535</v>
+        <v>1.134</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>J. Mol. Catal. A-Chem.</v>
-      </c>
-      <c r="B188" t="str">
-        <v>-</v>
+        <v>J. Korean Phys. Soc.</v>
+      </c>
+      <c r="B188">
+        <v>0.535</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>FlatChem</v>
+        <v>J. Mol. Catal. A-Chem.</v>
       </c>
       <c r="B189" t="str">
         <v>-</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>ACS Appl. Nano Mater.</v>
+        <v>FlatChem</v>
       </c>
       <c r="B190" t="str">
         <v>-</v>
@@ -1927,16 +1927,24 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
+        <v>ACS Appl. Nano Mater.</v>
+      </c>
+      <c r="B191" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
         <v>ACS ES&amp;T Engineering</v>
       </c>
-      <c r="B191" t="str">
+      <c r="B192" t="str">
         <v>-</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C195"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C192"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/journals.xlsx
+++ b/data/journals.xlsx
@@ -500,7 +500,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Reviews Of Modern Physics</v>
+        <v>Reviews of Modern Physics</v>
       </c>
       <c r="B10">
         <v>44.8</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Physics Reports-Review Section Of Physics Letters</v>
+        <v>Physics Reports-Review Section of Physics Letters</v>
       </c>
       <c r="B23">
         <v>29.5</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>International Journal Of Extreme Manufacturing</v>
+        <v>International Journal of Extreme Manufacturing</v>
       </c>
       <c r="B33">
         <v>21.3</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Accounts Of Chemical Research</v>
+        <v>Accounts of Chemical Research</v>
       </c>
       <c r="B47">
         <v>17.7</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Chinese Journal Of Catalysis</v>
+        <v>Chinese Journal of Catalysis</v>
       </c>
       <c r="B48">
         <v>17.7</v>
@@ -998,7 +998,7 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Journal Of The American Chemical Society</v>
+        <v>Journal of The American Chemical Society</v>
       </c>
       <c r="B55">
         <v>15.7</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Journal Of Energy Chemistry</v>
+        <v>Journal of Energy Chemistry</v>
       </c>
       <c r="B60">
         <v>14.9</v>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Journal Of Materials Science &amp; Technology</v>
+        <v>Journal of Materials Science &amp; Technology</v>
       </c>
       <c r="B62">
         <v>14.3</v>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Journal Of Photochemistry And Photobiology C-Photochemistry Reviews</v>
+        <v>Journal of Photochemistry And Photobiology C-Photochemistry Reviews</v>
       </c>
       <c r="B71">
         <v>13.1</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Journal Of Advanced Research</v>
+        <v>Journal of Advanced Research</v>
       </c>
       <c r="B72">
         <v>13</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>International Journal Of Plasticity</v>
+        <v>International Journal of Plasticity</v>
       </c>
       <c r="B73">
         <v>12.8</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Annual Review Of Chemical And Biomolecular Engineering</v>
+        <v>Annual Review of Chemical And Biomolecular Engineering</v>
       </c>
       <c r="B74">
         <v>12.8</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Annual Review Of Physical Chemistry</v>
+        <v>Annual Review of Physical Chemistry</v>
       </c>
       <c r="B80">
         <v>11.7</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Journal Of Controlled Release</v>
+        <v>Journal of Controlled Release</v>
       </c>
       <c r="B82">
         <v>11.5</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Journal Of Hazardous Materials</v>
+        <v>Journal of Hazardous Materials</v>
       </c>
       <c r="B86">
         <v>11.3</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Annual Review Of Materials Research</v>
+        <v>Annual Review of Materials Research</v>
       </c>
       <c r="B99">
         <v>10.4</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Journal Of Cleaner Production</v>
+        <v>Journal of Cleaner Production</v>
       </c>
       <c r="B101">
         <v>10</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Journal Of Colloid And Interface Science</v>
+        <v>Journal of Colloid And Interface Science</v>
       </c>
       <c r="B106">
         <v>9.7</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Journal Of Materiomics</v>
+        <v>Journal of Materiomics</v>
       </c>
       <c r="B107">
         <v>9.6</v>
@@ -1581,12 +1581,12 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Journal Of Materials Chemistry A</v>
+        <v>Journal of Materials Chemistry A</v>
       </c>
       <c r="B108">
         <v>9.5</v>
       </c>
-      <c r="C108">
+      <c r="C108" t="str">
         <v>13.6</v>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Proceedings Of The National Academy Of Sciences Of The United States Of America</v>
+        <v>Proceedings of The National Academy of Sciences of The United States of America</v>
       </c>
       <c r="B116">
         <v>9.1</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Journal Of Membrane Science</v>
+        <v>Journal of Membrane Science</v>
       </c>
       <c r="B118">
         <v>9</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Journal Of Co2 Utilization</v>
+        <v>Journal of Co2 Utilization</v>
       </c>
       <c r="B132">
         <v>8.4</v>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>International Journal Of Hydrogen Energy</v>
+        <v>International Journal of Hydrogen Energy</v>
       </c>
       <c r="B134">
         <v>8.3</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Progress Of Theoretical And Experimental Physics</v>
+        <v>Progress of Theoretical And Experimental Physics</v>
       </c>
       <c r="B135">
         <v>8.3</v>
@@ -1955,7 +1955,7 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Journal Of Nanostructure In Chemistry</v>
+        <v>Journal of Nanostructure In Chemistry</v>
       </c>
       <c r="B142">
         <v>7.9</v>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Journal Of Power Sources</v>
+        <v>Journal of Power Sources</v>
       </c>
       <c r="B143">
         <v>7.9</v>
@@ -2021,7 +2021,7 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Fortschritte Der Physik-Progress Of Physics</v>
+        <v>Fortschritte Der Physik-Progress of Physics</v>
       </c>
       <c r="B148">
         <v>7.8</v>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Journal Of Materials Processing Technology</v>
+        <v>Journal of Materials Processing Technology</v>
       </c>
       <c r="B156">
         <v>7.5</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>International Journal Of Minerals Metallurgy And Materials</v>
+        <v>International Journal of Minerals Metallurgy And Materials</v>
       </c>
       <c r="B164">
         <v>7.2</v>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Journal Of Environmental Chemical Engineering</v>
+        <v>Journal of Environmental Chemical Engineering</v>
       </c>
       <c r="B165">
         <v>7.2</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Chemistry Of Materials</v>
+        <v>Chemistry of Materials</v>
       </c>
       <c r="B170">
         <v>7</v>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Science And Technology Of Advanced Materials</v>
+        <v>Science And Technology of Advanced Materials</v>
       </c>
       <c r="B175">
         <v>6.9</v>
@@ -2345,13 +2345,13 @@
       <c r="B177">
         <v>6.9</v>
       </c>
-      <c r="C177">
-        <v>25.1</v>
+      <c r="C177" t="str">
+        <v>10.4</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>International Journal Of Fatigue</v>
+        <v>International Journal of Fatigue</v>
       </c>
       <c r="B178">
         <v>6.8</v>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Journal Of Science-Advanced Materials And Devices</v>
+        <v>Journal of Science-Advanced Materials And Devices</v>
       </c>
       <c r="B179">
         <v>6.8</v>
@@ -2417,7 +2417,7 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Journal Of Water Process Engineering</v>
+        <v>Journal of Water Process Engineering</v>
       </c>
       <c r="B184">
         <v>6.7</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>International Journal Of Smart And Nano Materials</v>
+        <v>International Journal of Smart And Nano Materials</v>
       </c>
       <c r="B187">
         <v>6.6</v>
@@ -2461,7 +2461,7 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Journal Of Materials Research And Technology-Jmr&amp;T</v>
+        <v>Journal of Materials Research And Technology-Jmr&amp;T</v>
       </c>
       <c r="B188">
         <v>6.6</v>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Journal Of Catalysis</v>
+        <v>Journal of Catalysis</v>
       </c>
       <c r="B193">
         <v>6.5</v>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Frontiers Of Environmental Science &amp; Engineering</v>
+        <v>Frontiers of Environmental Science &amp; Engineering</v>
       </c>
       <c r="B195">
         <v>6.4</v>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Journal Of Alloys And Compounds</v>
+        <v>Journal of Alloys And Compounds</v>
       </c>
       <c r="B196">
         <v>6.3</v>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Journal Of Physics-Energy</v>
+        <v>Journal of Physics-Energy</v>
       </c>
       <c r="B197">
         <v>6.3</v>
@@ -2582,7 +2582,7 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Journal Of The Taiwan Institute Of Chemical Engineers</v>
+        <v>Journal of The Taiwan Institute of Chemical Engineers</v>
       </c>
       <c r="B199">
         <v>6.3</v>
@@ -2670,7 +2670,7 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>Journal Of Analytical And Applied Pyrolysis</v>
+        <v>Journal of Analytical And Applied Pyrolysis</v>
       </c>
       <c r="B207">
         <v>6.2</v>
@@ -2736,7 +2736,7 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>Journal Of Industrial And Engineering Chemistry</v>
+        <v>Journal of Industrial And Engineering Chemistry</v>
       </c>
       <c r="B213">
         <v>6</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>Journal Of The Mechanics And Physics Of Solids</v>
+        <v>Journal of The Mechanics And Physics of Solids</v>
       </c>
       <c r="B215">
         <v>6</v>
@@ -2769,7 +2769,7 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>Journal Of Natural Gas Science And Engineering</v>
+        <v>Journal of Natural Gas Science And Engineering</v>
       </c>
       <c r="B216">
         <v>5.9</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>Journal Of Saudi Chemical Society</v>
+        <v>Journal of Saudi Chemical Society</v>
       </c>
       <c r="B218">
         <v>5.8</v>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>Journal Of Food Engineering</v>
+        <v>Journal of Food Engineering</v>
       </c>
       <c r="B221">
         <v>5.8</v>
@@ -2846,7 +2846,7 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>Journal Of Cheminformatics</v>
+        <v>Journal of Cheminformatics</v>
       </c>
       <c r="B223">
         <v>5.7</v>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>Chinese Journal Of Chemistry</v>
+        <v>Chinese Journal of Chemistry</v>
       </c>
       <c r="B231">
         <v>5.5</v>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>Journal Of Chemical Theory And Computation</v>
+        <v>Journal of Chemical Theory And Computation</v>
       </c>
       <c r="B235">
         <v>5.5</v>
@@ -3011,7 +3011,7 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>International Journal Of Life Cycle Assessment</v>
+        <v>International Journal of Life Cycle Assessment</v>
       </c>
       <c r="B238">
         <v>5.4</v>
@@ -3022,7 +3022,7 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>Journal Of Industrial Ecology</v>
+        <v>Journal of Industrial Ecology</v>
       </c>
       <c r="B239">
         <v>5.4</v>
@@ -3055,7 +3055,7 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>Journal Of Chemical Information And Modeling</v>
+        <v>Journal of Chemical Information And Modeling</v>
       </c>
       <c r="B242">
         <v>5.3</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>Frontiers Of Physics</v>
+        <v>Frontiers of Physics</v>
       </c>
       <c r="B246">
         <v>5.3</v>
@@ -3110,7 +3110,7 @@
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>Arabian Journal Of Chemistry</v>
+        <v>Arabian Journal of Chemistry</v>
       </c>
       <c r="B247">
         <v>5.2</v>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>Journal Of Materials Chemistry C</v>
+        <v>Journal of Materials Chemistry C</v>
       </c>
       <c r="B248">
         <v>5.2</v>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>International Journal Of Greenhouse Gas Control</v>
+        <v>International Journal of Greenhouse Gas Control</v>
       </c>
       <c r="B249">
         <v>5.2</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>Proceedings Of The Combustion Institute</v>
+        <v>Proceedings of The Combustion Institute</v>
       </c>
       <c r="B250">
         <v>5.2</v>
@@ -3154,7 +3154,7 @@
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>Journal Of Molecular Liquids</v>
+        <v>Journal of Molecular Liquids</v>
       </c>
       <c r="B251">
         <v>5.2</v>
@@ -3242,7 +3242,7 @@
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>Journal Of Polymers And The Environment</v>
+        <v>Journal of Polymers And The Environment</v>
       </c>
       <c r="B259">
         <v>5</v>
@@ -3264,7 +3264,7 @@
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>International Journal Of Molecular Sciences</v>
+        <v>International Journal of Molecular Sciences</v>
       </c>
       <c r="B261">
         <v>4.9</v>
@@ -3275,7 +3275,7 @@
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>Journal Of Physics And Chemistry Of Solids</v>
+        <v>Journal of Physics And Chemistry of Solids</v>
       </c>
       <c r="B262">
         <v>4.9</v>
@@ -3319,7 +3319,7 @@
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>Journal Of Computational Chemistry</v>
+        <v>Journal of Computational Chemistry</v>
       </c>
       <c r="B266">
         <v>4.8</v>
@@ -3363,7 +3363,7 @@
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>Annals Of The New York Academy Of Sciences</v>
+        <v>Annals of The New York Academy of Sciences</v>
       </c>
       <c r="B270">
         <v>4.8</v>
@@ -3440,7 +3440,7 @@
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>Journal Of Physical Chemistry Letters</v>
+        <v>Journal of Physical Chemistry Letters</v>
       </c>
       <c r="B277">
         <v>4.7</v>
@@ -3506,7 +3506,7 @@
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>Journal Of Molecular Structure</v>
+        <v>Journal of Molecular Structure</v>
       </c>
       <c r="B283">
         <v>4.7</v>
@@ -3517,7 +3517,7 @@
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>Journal Of Photochemistry And Photobiology A-Chemistry</v>
+        <v>Journal of Photochemistry And Photobiology A-Chemistry</v>
       </c>
       <c r="B284">
         <v>4.7</v>
@@ -3572,7 +3572,7 @@
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>International Journal Of Refractory Metals &amp; Hard Materials</v>
+        <v>International Journal of Refractory Metals &amp; Hard Materials</v>
       </c>
       <c r="B289">
         <v>4.6</v>
@@ -3649,7 +3649,7 @@
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>Proceedings Of The Japan Academy Series B-Physical And Biological Sciences</v>
+        <v>Proceedings of The Japan Academy Series B-Physical And Biological Sciences</v>
       </c>
       <c r="B296">
         <v>4.6</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>Chinese Journal Of Physics</v>
+        <v>Chinese Journal of Physics</v>
       </c>
       <c r="B299">
         <v>4.6</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="304">
       <c r="A304" t="str">
-        <v>Frontiers Of Chemical Science And Engineering</v>
+        <v>Frontiers of Chemical Science And Engineering</v>
       </c>
       <c r="B304">
         <v>4.5</v>
@@ -3770,7 +3770,7 @@
     </row>
     <row r="307">
       <c r="A307" t="str">
-        <v>Archives Of Civil And Mechanical Engineering</v>
+        <v>Archives of Civil And Mechanical Engineering</v>
       </c>
       <c r="B307">
         <v>4.4</v>
@@ -3781,7 +3781,7 @@
     </row>
     <row r="308">
       <c r="A308" t="str">
-        <v>Journal Of Supercritical Fluids</v>
+        <v>Journal of Supercritical Fluids</v>
       </c>
       <c r="B308">
         <v>4.4</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="313">
       <c r="A313" t="str">
-        <v>Journal Of Physics-Materials</v>
+        <v>Journal of Physics-Materials</v>
       </c>
       <c r="B313">
         <v>4.3</v>
@@ -3946,7 +3946,7 @@
     </row>
     <row r="323">
       <c r="A323" t="str">
-        <v>Journal Of Sustainable Cement-Based Materials</v>
+        <v>Journal of Sustainable Cement-Based Materials</v>
       </c>
       <c r="B323">
         <v>4.2</v>
@@ -4001,7 +4001,7 @@
     </row>
     <row r="328">
       <c r="A328" t="str">
-        <v>Journal Of Loss Prevention In The Process Industries</v>
+        <v>Journal of Loss Prevention In The Process Industries</v>
       </c>
       <c r="B328">
         <v>4.2</v>
@@ -4012,7 +4012,7 @@
     </row>
     <row r="329">
       <c r="A329" t="str">
-        <v>Bulletin Of Engineering Geology And The Environment</v>
+        <v>Bulletin of Engineering Geology And The Environment</v>
       </c>
       <c r="B329">
         <v>4.2</v>
@@ -4045,7 +4045,7 @@
     </row>
     <row r="332">
       <c r="A332" t="str">
-        <v>Mechanics Of Materials</v>
+        <v>Mechanics of Materials</v>
       </c>
       <c r="B332">
         <v>4.1</v>
@@ -4089,7 +4089,7 @@
     </row>
     <row r="336">
       <c r="A336" t="str">
-        <v>Journal Of Taibah University For Science</v>
+        <v>Journal of Taibah University For Science</v>
       </c>
       <c r="B336">
         <v>4.1</v>
@@ -4133,7 +4133,7 @@
     </row>
     <row r="340">
       <c r="A340" t="str">
-        <v>Journal Of Electroanalytical Chemistry</v>
+        <v>Journal of Electroanalytical Chemistry</v>
       </c>
       <c r="B340">
         <v>4.1</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="348">
       <c r="A348" t="str">
-        <v>International Journal Of Damage Mechanics</v>
+        <v>International Journal of Damage Mechanics</v>
       </c>
       <c r="B348">
         <v>3.9</v>
@@ -4232,7 +4232,7 @@
     </row>
     <row r="349">
       <c r="A349" t="str">
-        <v>Journal Of Materials Science</v>
+        <v>Journal of Materials Science</v>
       </c>
       <c r="B349">
         <v>3.9</v>
@@ -4342,7 +4342,7 @@
     </row>
     <row r="359">
       <c r="A359" t="str">
-        <v>Journal Of Process Control</v>
+        <v>Journal of Process Control</v>
       </c>
       <c r="B359">
         <v>3.9</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="362">
       <c r="A362" t="str">
-        <v>Bulletin Of The Chemical Society Of Japan</v>
+        <v>Bulletin of The Chemical Society of Japan</v>
       </c>
       <c r="B362">
         <v>3.8</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="364">
       <c r="A364" t="str">
-        <v>Journal Of Pharmaceutical Sciences</v>
+        <v>Journal of Pharmaceutical Sciences</v>
       </c>
       <c r="B364">
         <v>3.8</v>
@@ -4485,7 +4485,7 @@
     </row>
     <row r="372">
       <c r="A372" t="str">
-        <v>Journal Of Adhesion Science And Technology</v>
+        <v>Journal of Adhesion Science And Technology</v>
       </c>
       <c r="B372">
         <v>3.7</v>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="375">
       <c r="A375" t="str">
-        <v>Science And Technology Of Welding And Joining</v>
+        <v>Science And Technology of Welding And Joining</v>
       </c>
       <c r="B375">
         <v>3.7</v>
@@ -4529,7 +4529,7 @@
     </row>
     <row r="376">
       <c r="A376" t="str">
-        <v>Philosophical Transactions Of The Royal Society A-Mathematical Physical And Engineering Sciences</v>
+        <v>Philosophical Transactions of The Royal Society A-Mathematical Physical And Engineering Sciences</v>
       </c>
       <c r="B376">
         <v>3.7</v>
@@ -4540,7 +4540,7 @@
     </row>
     <row r="377">
       <c r="A377" t="str">
-        <v>Chinese Journal Of Chemical Engineering</v>
+        <v>Chinese Journal of Chemical Engineering</v>
       </c>
       <c r="B377">
         <v>3.7</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="378">
       <c r="A378" t="str">
-        <v>Journal Of Terramechanics</v>
+        <v>Journal of Terramechanics</v>
       </c>
       <c r="B378">
         <v>3.7</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="384">
       <c r="A384" t="str">
-        <v>International Journal Of Concrete Structures And Materials</v>
+        <v>International Journal of Concrete Structures And Materials</v>
       </c>
       <c r="B384">
         <v>3.6</v>
@@ -4628,7 +4628,7 @@
     </row>
     <row r="385">
       <c r="A385" t="str">
-        <v>International Journal Of Mechanics And Materials In Design</v>
+        <v>International Journal of Mechanics And Materials In Design</v>
       </c>
       <c r="B385">
         <v>3.6</v>
@@ -4672,7 +4672,7 @@
     </row>
     <row r="389">
       <c r="A389" t="str">
-        <v>Journal Of King Saud University Science</v>
+        <v>Journal of King Saud University Science</v>
       </c>
       <c r="B389">
         <v>3.6</v>
@@ -4716,7 +4716,7 @@
     </row>
     <row r="393">
       <c r="A393" t="str">
-        <v>International Journal Of Adhesion And Adhesives</v>
+        <v>International Journal of Adhesion And Adhesives</v>
       </c>
       <c r="B393">
         <v>3.5</v>
@@ -4727,7 +4727,7 @@
     </row>
     <row r="394">
       <c r="A394" t="str">
-        <v>Journal Of Non-Crystalline Solids</v>
+        <v>Journal of Non-Crystalline Solids</v>
       </c>
       <c r="B394">
         <v>3.5</v>
@@ -4738,7 +4738,7 @@
     </row>
     <row r="395">
       <c r="A395" t="str">
-        <v>Journal Of The Royal Society Interface</v>
+        <v>Journal of The Royal Society Interface</v>
       </c>
       <c r="B395">
         <v>3.5</v>
@@ -4749,7 +4749,7 @@
     </row>
     <row r="396">
       <c r="A396" t="str">
-        <v>Journal Of Solid State Chemistry</v>
+        <v>Journal of Solid State Chemistry</v>
       </c>
       <c r="B396">
         <v>3.5</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="402">
       <c r="A402" t="str">
-        <v>Journal Of The Indian Chemical Society</v>
+        <v>Journal of The Indian Chemical Society</v>
       </c>
       <c r="B402">
         <v>3.4</v>
@@ -4826,7 +4826,7 @@
     </row>
     <row r="403">
       <c r="A403" t="str">
-        <v>Journal Of Information Display</v>
+        <v>Journal of Information Display</v>
       </c>
       <c r="B403">
         <v>3.4</v>
@@ -4925,7 +4925,7 @@
     </row>
     <row r="412">
       <c r="A412" t="str">
-        <v>Journal Of Cultural Heritage</v>
+        <v>Journal of Cultural Heritage</v>
       </c>
       <c r="B412">
         <v>3.3</v>
@@ -5035,7 +5035,7 @@
     </row>
     <row r="422">
       <c r="A422" t="str">
-        <v>Journal Of The Electrochemical Society</v>
+        <v>Journal of The Electrochemical Society</v>
       </c>
       <c r="B422">
         <v>3.3</v>
@@ -5046,7 +5046,7 @@
     </row>
     <row r="423">
       <c r="A423" t="str">
-        <v>Journal Of Physical And Chemical Reference Data</v>
+        <v>Journal of Physical And Chemical Reference Data</v>
       </c>
       <c r="B423">
         <v>3.2</v>
@@ -5057,7 +5057,7 @@
     </row>
     <row r="424">
       <c r="A424" t="str">
-        <v>Korean Journal Of Chemical Engineering</v>
+        <v>Korean Journal of Chemical Engineering</v>
       </c>
       <c r="B424">
         <v>3.2</v>
@@ -5079,7 +5079,7 @@
     </row>
     <row r="426">
       <c r="A426" t="str">
-        <v>Fatigue &amp; Fracture Of Engineering Materials &amp; Structures</v>
+        <v>Fatigue &amp; Fracture of Engineering Materials &amp; Structures</v>
       </c>
       <c r="B426">
         <v>3.2</v>
@@ -5101,7 +5101,7 @@
     </row>
     <row r="428">
       <c r="A428" t="str">
-        <v>Journal Of Nuclear Materials</v>
+        <v>Journal of Nuclear Materials</v>
       </c>
       <c r="B428">
         <v>3.2</v>
@@ -5112,7 +5112,7 @@
     </row>
     <row r="429">
       <c r="A429" t="str">
-        <v>Journal Of Physical Chemistry C</v>
+        <v>Journal of Physical Chemistry C</v>
       </c>
       <c r="B429">
         <v>3.2</v>
@@ -5123,7 +5123,7 @@
     </row>
     <row r="430">
       <c r="A430" t="str">
-        <v>Journal Of Porous Materials</v>
+        <v>Journal of Porous Materials</v>
       </c>
       <c r="B430">
         <v>3.2</v>
@@ -5178,7 +5178,7 @@
     </row>
     <row r="435">
       <c r="A435" t="str">
-        <v>Journal Of Microencapsulation</v>
+        <v>Journal of Microencapsulation</v>
       </c>
       <c r="B435">
         <v>3.2</v>
@@ -5211,7 +5211,7 @@
     </row>
     <row r="438">
       <c r="A438" t="str">
-        <v>Zeitschrift Fur Physikalische Chemie-International Journal Of Research In Physical Chemistry &amp; Chemical Physics</v>
+        <v>Zeitschrift Fur Physikalische Chemie-International Journal of Research In Physical Chemistry &amp; Chemical Physics</v>
       </c>
       <c r="B438">
         <v>3.2</v>
@@ -5310,7 +5310,7 @@
     </row>
     <row r="447">
       <c r="A447" t="str">
-        <v>Adsorption-Journal Of The International Adsorption Society</v>
+        <v>Adsorption-Journal of The International Adsorption Society</v>
       </c>
       <c r="B447">
         <v>3.1</v>
@@ -5354,7 +5354,7 @@
     </row>
     <row r="451">
       <c r="A451" t="str">
-        <v>Journal Of Chemical Physics</v>
+        <v>Journal of Chemical Physics</v>
       </c>
       <c r="B451">
         <v>3.1</v>
@@ -5365,7 +5365,7 @@
     </row>
     <row r="452">
       <c r="A452" t="str">
-        <v>Journal Of Fluorescence</v>
+        <v>Journal of Fluorescence</v>
       </c>
       <c r="B452">
         <v>3.1</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="453">
       <c r="A453" t="str">
-        <v>Journal Of Thermal Analysis And Calorimetry</v>
+        <v>Journal of Thermal Analysis And Calorimetry</v>
       </c>
       <c r="B453">
         <v>3.1</v>
@@ -5431,7 +5431,7 @@
     </row>
     <row r="458">
       <c r="A458" t="str">
-        <v>Mechanics Of Advanced Materials And Structures</v>
+        <v>Mechanics of Advanced Materials And Structures</v>
       </c>
       <c r="B458" t="str">
         <v>-</v>
@@ -5442,7 +5442,7 @@
     </row>
     <row r="459">
       <c r="A459" t="str">
-        <v>Transactions Of Famena</v>
+        <v>Transactions of Famena</v>
       </c>
       <c r="B459" t="str">
         <v>-</v>
